--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ahsg-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ahsg-Insr.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N2">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O2">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P2">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q2">
-        <v>4.563974033657333</v>
+        <v>7.213773066516445</v>
       </c>
       <c r="R2">
-        <v>41.075766302916</v>
+        <v>64.923957598648</v>
       </c>
       <c r="S2">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="T2">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>29.50267</v>
       </c>
       <c r="O3">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P3">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q3">
         <v>3.495482897748889</v>
@@ -635,10 +635,10 @@
         <v>31.45934607974</v>
       </c>
       <c r="S3">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="T3">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N4">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O4">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P4">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q4">
-        <v>2.315100224776</v>
+        <v>4.199656354820888</v>
       </c>
       <c r="R4">
-        <v>20.835902022984</v>
+        <v>37.79690719338799</v>
       </c>
       <c r="S4">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="T4">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N5">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O5">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P5">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q5">
-        <v>3.076079261352889</v>
+        <v>2.980915591423333</v>
       </c>
       <c r="R5">
-        <v>27.684713352176</v>
+        <v>26.82824032281</v>
       </c>
       <c r="S5">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="T5">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
     </row>
   </sheetData>
